--- a/data/trans_orig/P19E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD695BD8-73B0-4F5F-900D-F62B9657BF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{077D2E9B-24C5-4600-9422-000AC94C9453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78D0B3A0-8296-4C7B-B787-837B8F187A8C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93170D8A-0DB3-434E-867D-7C654D3B0735}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="358">
   <si>
     <t>Población según el número de veces que se cepilla los dientes al día en 2015 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>22,17%</t>
   </si>
   <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>28,65%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>25,87%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>Dos veces al dia</t>
@@ -105,1018 +105,1012 @@
     <t>25,27%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>Una vez al dia</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>Una vez al dia</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
   </si>
   <si>
     <t>50,54%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
+    <t>57,48%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D271CD17-C859-4F5C-B348-3A89436906FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB8F9AC-4117-41C9-9467-F5013617AEF9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1987,7 +1981,7 @@
         <v>1519</v>
       </c>
       <c r="N10" s="7">
-        <v>1598714</v>
+        <v>1598713</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2038,7 +2032,7 @@
         <v>1282</v>
       </c>
       <c r="N11" s="7">
-        <v>1335248</v>
+        <v>1335247</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -2065,10 +2059,10 @@
         <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>328</v>
@@ -2077,13 +2071,13 @@
         <v>339749</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>783</v>
@@ -2092,13 +2086,13 @@
         <v>826814</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2107,13 @@
         <v>47087</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2128,13 +2122,13 @@
         <v>18246</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2143,13 +2137,13 @@
         <v>65333</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2158,13 @@
         <v>122052</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -2179,13 +2173,13 @@
         <v>27886</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -2194,13 +2188,13 @@
         <v>149938</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,7 +2236,7 @@
         <v>3778</v>
       </c>
       <c r="N15" s="7">
-        <v>3976047</v>
+        <v>3976046</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2256,7 +2250,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2268,13 +2262,13 @@
         <v>279519</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>319</v>
@@ -2283,13 +2277,13 @@
         <v>334240</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>578</v>
@@ -2298,13 +2292,13 @@
         <v>613759</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2313,13 @@
         <v>151264</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -2334,7 +2328,7 @@
         <v>152875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>120</v>
@@ -2487,13 +2481,13 @@
         <v>5049</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -2502,13 +2496,13 @@
         <v>12995</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2570,13 @@
         <v>1155533</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>1410</v>
@@ -2591,13 +2585,13 @@
         <v>1487652</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>2503</v>
@@ -2606,13 +2600,13 @@
         <v>2643185</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2621,13 @@
         <v>985963</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>1070</v>
@@ -2642,13 +2636,13 @@
         <v>1129885</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>2015</v>
@@ -2657,13 +2651,13 @@
         <v>2115848</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2672,13 @@
         <v>799617</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>604</v>
@@ -2693,13 +2687,13 @@
         <v>639263</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>1364</v>
@@ -2708,13 +2702,13 @@
         <v>1438880</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2723,7 @@
         <v>97596</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>177</v>
@@ -2798,10 +2792,10 @@
         <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>340</v>
@@ -2810,13 +2804,13 @@
         <v>366119</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,7 +2866,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2891,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43C48CB-242B-4B9C-9766-EC4D55081BAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5761CE64-5EF8-4981-8C72-E3B666C71339}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2908,7 +2902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3015,13 +3009,13 @@
         <v>51480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>235</v>
@@ -3030,13 +3024,13 @@
         <v>151773</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>292</v>
@@ -3045,13 +3039,13 @@
         <v>203253</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3060,13 @@
         <v>225473</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>635</v>
@@ -3081,13 +3075,13 @@
         <v>377885</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>909</v>
@@ -3096,13 +3090,13 @@
         <v>603359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,10 +3114,10 @@
         <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>383</v>
@@ -3132,13 +3126,13 @@
         <v>208755</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>619</v>
@@ -3147,13 +3141,13 @@
         <v>380815</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3162,13 @@
         <v>32028</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -3198,13 +3192,13 @@
         <v>59361</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3213,13 @@
         <v>52448</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -3234,13 +3228,13 @@
         <v>51652</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>168</v>
@@ -3249,13 +3243,13 @@
         <v>104099</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,7 +3261,7 @@
         <v>680</v>
       </c>
       <c r="D9" s="7">
-        <v>533489</v>
+        <v>533490</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -3323,13 +3317,13 @@
         <v>503058</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>890</v>
@@ -3338,13 +3332,13 @@
         <v>697971</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>1297</v>
@@ -3353,13 +3347,13 @@
         <v>1201029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3368,13 @@
         <v>1165742</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>1612</v>
@@ -3389,13 +3383,13 @@
         <v>1278343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>2688</v>
@@ -3404,13 +3398,13 @@
         <v>2444085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3419,13 @@
         <v>413952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>353</v>
@@ -3440,13 +3434,13 @@
         <v>227148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>778</v>
@@ -3455,13 +3449,13 @@
         <v>641100</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3470,13 @@
         <v>17094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3491,13 +3485,13 @@
         <v>13414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3506,13 +3500,13 @@
         <v>30508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3521,13 @@
         <v>56004</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -3542,13 +3536,13 @@
         <v>29144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -3557,13 +3551,13 @@
         <v>85148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3631,13 +3625,13 @@
         <v>243127</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>444</v>
@@ -3646,13 +3640,13 @@
         <v>334344</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>689</v>
@@ -3661,13 +3655,13 @@
         <v>577471</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3676,13 @@
         <v>326441</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>479</v>
@@ -3697,13 +3691,13 @@
         <v>328048</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>816</v>
@@ -3712,13 +3706,13 @@
         <v>654489</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3727,13 @@
         <v>99951</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
@@ -3748,13 +3742,13 @@
         <v>46230</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>167</v>
@@ -3763,13 +3757,13 @@
         <v>146180</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3778,13 @@
         <v>1977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3799,13 +3793,13 @@
         <v>2560</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3814,13 +3808,13 @@
         <v>4537</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,10 +3829,10 @@
         <v>762</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>313</v>
@@ -3850,13 +3844,13 @@
         <v>2090</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3865,13 +3859,13 @@
         <v>2852</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3933,13 @@
         <v>797665</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>1569</v>
@@ -4095,10 +4089,10 @@
         <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -4107,13 +4101,13 @@
         <v>43306</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -4122,13 +4116,13 @@
         <v>94405</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4137,13 @@
         <v>109214</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>139</v>
@@ -4158,13 +4152,13 @@
         <v>82886</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>269</v>
@@ -4173,13 +4167,13 @@
         <v>192100</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4229,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{077D2E9B-24C5-4600-9422-000AC94C9453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A6C3B2B-BD94-4559-83B0-C3969D7FF07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93170D8A-0DB3-434E-867D-7C654D3B0735}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9A031B7-1FCA-4404-9AD1-D55A2EA46FDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="358">
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2015 (Tasa respuesta: 97,38%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="360">
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,10 +75,10 @@
     <t>22,17%</t>
   </si>
   <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>28,65%</t>
@@ -87,16 +87,16 @@
     <t>25,64%</t>
   </si>
   <si>
-    <t>31,55%</t>
+    <t>31,62%</t>
   </si>
   <si>
     <t>25,87%</t>
   </si>
   <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>Dos veces al dia</t>
@@ -105,28 +105,28 @@
     <t>25,27%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>Una vez al dia</t>
@@ -135,28 +135,28 @@
     <t>30,44%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>26,01%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -165,925 +165,931 @@
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
   </si>
   <si>
     <t>3,25%</t>
@@ -1522,7 +1528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB8F9AC-4117-41C9-9467-F5013617AEF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D008C-D351-4773-A94B-14060C7F5FCC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1981,7 +1987,7 @@
         <v>1519</v>
       </c>
       <c r="N10" s="7">
-        <v>1598713</v>
+        <v>1598714</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2032,7 +2038,7 @@
         <v>1282</v>
       </c>
       <c r="N11" s="7">
-        <v>1335247</v>
+        <v>1335248</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -2059,10 +2065,10 @@
         <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>328</v>
@@ -2071,13 +2077,13 @@
         <v>339749</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>783</v>
@@ -2086,13 +2092,13 @@
         <v>826814</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2113,13 @@
         <v>47087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2122,13 +2128,13 @@
         <v>18246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2137,13 +2143,13 @@
         <v>65333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2164,13 @@
         <v>122052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -2173,13 +2179,13 @@
         <v>27886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -2236,7 +2242,7 @@
         <v>3778</v>
       </c>
       <c r="N15" s="7">
-        <v>3976046</v>
+        <v>3976047</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2472,7 +2478,7 @@
         <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2481,13 +2487,13 @@
         <v>5049</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -2496,13 +2502,13 @@
         <v>12995</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2576,13 @@
         <v>1155533</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>1410</v>
@@ -2585,13 +2591,13 @@
         <v>1487652</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>2503</v>
@@ -2600,13 +2606,13 @@
         <v>2643185</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2627,13 @@
         <v>985963</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>1070</v>
@@ -2636,13 +2642,13 @@
         <v>1129885</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>2015</v>
@@ -2651,13 +2657,13 @@
         <v>2115848</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2678,13 @@
         <v>799617</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>604</v>
@@ -2687,13 +2693,13 @@
         <v>639263</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1364</v>
@@ -2702,13 +2708,13 @@
         <v>1438880</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2729,13 @@
         <v>97596</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -2738,13 +2744,13 @@
         <v>62807</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -2753,13 +2759,13 @@
         <v>160404</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2780,13 @@
         <v>242527</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -2789,13 +2795,13 @@
         <v>123593</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>340</v>
@@ -2804,13 +2810,13 @@
         <v>366119</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,7 +2872,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5761CE64-5EF8-4981-8C72-E3B666C71339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15240689-B7BA-4A8D-B6C9-80839F65BC56}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2902,7 +2908,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3009,13 +3015,13 @@
         <v>51480</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>235</v>
@@ -3024,13 +3030,13 @@
         <v>151773</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>292</v>
@@ -3039,13 +3045,13 @@
         <v>203253</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3066,13 @@
         <v>225473</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>635</v>
@@ -3075,13 +3081,13 @@
         <v>377885</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>909</v>
@@ -3090,13 +3096,13 @@
         <v>603359</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3117,13 @@
         <v>172060</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>383</v>
@@ -3126,13 +3132,13 @@
         <v>208755</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>619</v>
@@ -3141,13 +3147,13 @@
         <v>380815</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3168,13 @@
         <v>32028</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -3177,13 +3183,13 @@
         <v>27332</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -3192,13 +3198,13 @@
         <v>59361</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3219,13 @@
         <v>52448</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -3228,7 +3234,7 @@
         <v>51652</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>231</v>
@@ -3320,10 +3326,10 @@
         <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>890</v>
@@ -3332,13 +3338,13 @@
         <v>697971</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>1297</v>
@@ -3347,13 +3353,13 @@
         <v>1201029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3374,13 @@
         <v>1165742</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>1612</v>
@@ -3383,13 +3389,13 @@
         <v>1278343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>2688</v>
@@ -3398,13 +3404,13 @@
         <v>2444085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3425,13 @@
         <v>413952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>353</v>
@@ -3434,13 +3440,13 @@
         <v>227148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>778</v>
@@ -3449,13 +3455,13 @@
         <v>641100</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3476,13 @@
         <v>17094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3485,13 +3491,13 @@
         <v>13414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3500,13 +3506,13 @@
         <v>30508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3527,13 @@
         <v>56004</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -3793,7 +3799,7 @@
         <v>2560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>306</v>
@@ -4089,7 +4095,7 @@
         <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>274</v>
@@ -4101,13 +4107,13 @@
         <v>43306</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -4116,13 +4122,13 @@
         <v>94405</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4143,13 @@
         <v>109214</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>139</v>
@@ -4152,13 +4158,13 @@
         <v>82886</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>269</v>
@@ -4167,13 +4173,13 @@
         <v>192100</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,7 +4235,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A6C3B2B-BD94-4559-83B0-C3969D7FF07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D895C1-49E9-4702-B90F-9E72A2C930D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9A031B7-1FCA-4404-9AD1-D55A2EA46FDB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB130AFE-574C-4AFD-83D8-FCCFB38991A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>22,17%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>28,65%</t>
   </si>
   <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
   </si>
   <si>
     <t>25,87%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>Dos veces al dia</t>
@@ -105,28 +105,28 @@
     <t>25,27%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
   <si>
     <t>Una vez al dia</t>
@@ -135,28 +135,28 @@
     <t>30,44%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>26,01%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -165,958 +165,958 @@
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D008C-D351-4773-A94B-14060C7F5FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B5E06-313F-48E7-9465-E6EF328C4895}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2185,7 +2185,7 @@
         <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -2194,13 +2194,13 @@
         <v>149938</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,7 +2256,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2268,13 +2268,13 @@
         <v>279519</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>319</v>
@@ -2283,13 +2283,13 @@
         <v>334240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>578</v>
@@ -2298,13 +2298,13 @@
         <v>613759</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2319,13 @@
         <v>151264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -2334,7 +2334,7 @@
         <v>152875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>120</v>
@@ -2478,7 +2478,7 @@
         <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2490,10 +2490,10 @@
         <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -2502,13 +2502,13 @@
         <v>12995</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2576,13 @@
         <v>1155533</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>1410</v>
@@ -2591,13 +2591,13 @@
         <v>1487652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>2503</v>
@@ -2606,13 +2606,13 @@
         <v>2643185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2627,13 @@
         <v>985963</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>1070</v>
@@ -2642,13 +2642,13 @@
         <v>1129885</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>2015</v>
@@ -2657,13 +2657,13 @@
         <v>2115848</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2678,13 @@
         <v>799617</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>604</v>
@@ -2693,13 +2693,13 @@
         <v>639263</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>1364</v>
@@ -2708,13 +2708,13 @@
         <v>1438880</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2729,13 @@
         <v>97596</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -2744,13 +2744,13 @@
         <v>62807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -2759,13 +2759,13 @@
         <v>160404</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2780,13 @@
         <v>242527</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -2795,10 +2795,10 @@
         <v>123593</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>189</v>
@@ -2891,7 +2891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15240689-B7BA-4A8D-B6C9-80839F65BC56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1302A015-CF43-4613-BCED-2362FC904FC3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3030,7 +3030,7 @@
         <v>151773</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>198</v>
@@ -3051,7 +3051,7 @@
         <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3066,13 @@
         <v>225473</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>635</v>
@@ -3081,13 +3081,13 @@
         <v>377885</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>909</v>
@@ -3096,13 +3096,13 @@
         <v>603359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3117,13 @@
         <v>172060</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>383</v>
@@ -3132,13 +3132,13 @@
         <v>208755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>619</v>
@@ -3147,13 +3147,13 @@
         <v>380815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3168,13 @@
         <v>32028</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -3183,13 +3183,13 @@
         <v>27332</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -3198,13 +3198,13 @@
         <v>59361</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3219,13 @@
         <v>52448</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -3234,13 +3234,13 @@
         <v>51652</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>168</v>
@@ -3249,13 +3249,13 @@
         <v>104099</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,7 +3267,7 @@
         <v>680</v>
       </c>
       <c r="D9" s="7">
-        <v>533490</v>
+        <v>533489</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -3323,13 +3323,13 @@
         <v>503058</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>890</v>
@@ -3338,13 +3338,13 @@
         <v>697971</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>1297</v>
@@ -3353,13 +3353,13 @@
         <v>1201029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3374,13 @@
         <v>1165742</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>1612</v>
@@ -3389,13 +3389,13 @@
         <v>1278343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>2688</v>
@@ -3404,13 +3404,13 @@
         <v>2444085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3425,13 @@
         <v>413952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>353</v>
@@ -3440,13 +3440,13 @@
         <v>227148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>778</v>
@@ -3455,13 +3455,13 @@
         <v>641100</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3476,13 @@
         <v>17094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3491,13 +3491,13 @@
         <v>13414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3506,10 +3506,10 @@
         <v>30508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>268</v>
@@ -3527,13 +3527,13 @@
         <v>56004</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -3542,13 +3542,13 @@
         <v>29144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -3557,13 +3557,13 @@
         <v>85148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3631,13 +3631,13 @@
         <v>243127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>444</v>
@@ -3646,13 +3646,13 @@
         <v>334344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>689</v>
@@ -3661,13 +3661,13 @@
         <v>577471</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3682,13 @@
         <v>326441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>479</v>
@@ -3697,13 +3697,13 @@
         <v>328048</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>816</v>
@@ -3712,13 +3712,13 @@
         <v>654489</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3733,13 @@
         <v>99951</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
@@ -3748,13 +3748,13 @@
         <v>46230</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>167</v>
@@ -3763,13 +3763,13 @@
         <v>146180</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3784,13 @@
         <v>1977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3799,13 +3799,13 @@
         <v>2560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3814,13 +3814,13 @@
         <v>4537</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,10 +3835,10 @@
         <v>762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>313</v>
@@ -3850,13 +3850,13 @@
         <v>2090</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3865,13 +3865,13 @@
         <v>2852</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3939,13 @@
         <v>797665</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>1569</v>
@@ -4098,7 +4098,7 @@
         <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -4107,13 +4107,13 @@
         <v>43306</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -4122,13 +4122,13 @@
         <v>94405</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D895C1-49E9-4702-B90F-9E72A2C930D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB92EE1-B643-4B02-81B1-923D6B009376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB130AFE-574C-4AFD-83D8-FCCFB38991A2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ED2D360F-FAC5-49C7-86A3-2997C341D5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="361">
   <si>
     <t>Población según el número de veces que se cepilla los dientes al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -624,499 +624,502 @@
     <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>20,6%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B5E06-313F-48E7-9465-E6EF328C4895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EF3BB4-9EBF-480F-B9F3-9A9B3BB2B33B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2891,7 +2894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1302A015-CF43-4613-BCED-2362FC904FC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B462F59B-D8EB-416A-81BD-EA3CCE129330}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3012,25 +3015,25 @@
         <v>57</v>
       </c>
       <c r="D4" s="7">
-        <v>51480</v>
+        <v>47648</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>235</v>
       </c>
       <c r="I4" s="7">
-        <v>151773</v>
+        <v>133919</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>198</v>
@@ -3042,7 +3045,7 @@
         <v>292</v>
       </c>
       <c r="N4" s="7">
-        <v>203253</v>
+        <v>181567</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>200</v>
@@ -3063,7 +3066,7 @@
         <v>274</v>
       </c>
       <c r="D5" s="7">
-        <v>225473</v>
+        <v>212984</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>203</v>
@@ -3078,7 +3081,7 @@
         <v>635</v>
       </c>
       <c r="I5" s="7">
-        <v>377885</v>
+        <v>340495</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>206</v>
@@ -3093,7 +3096,7 @@
         <v>909</v>
       </c>
       <c r="N5" s="7">
-        <v>603359</v>
+        <v>553479</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>209</v>
@@ -3114,7 +3117,7 @@
         <v>236</v>
       </c>
       <c r="D6" s="7">
-        <v>172060</v>
+        <v>166649</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>212</v>
@@ -3129,7 +3132,7 @@
         <v>383</v>
       </c>
       <c r="I6" s="7">
-        <v>208755</v>
+        <v>192670</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>215</v>
@@ -3138,22 +3141,22 @@
         <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>619</v>
       </c>
       <c r="N6" s="7">
-        <v>380815</v>
+        <v>359319</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,46 +3168,46 @@
         <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>32028</v>
+        <v>29568</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>27332</v>
+        <v>23845</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
       </c>
       <c r="N7" s="7">
-        <v>59361</v>
+        <v>53413</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,46 +3219,46 @@
         <v>73</v>
       </c>
       <c r="D8" s="7">
-        <v>52448</v>
+        <v>50306</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
       </c>
       <c r="I8" s="7">
-        <v>51652</v>
+        <v>47792</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>168</v>
       </c>
       <c r="N8" s="7">
-        <v>104099</v>
+        <v>98097</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,7 +3270,7 @@
         <v>680</v>
       </c>
       <c r="D9" s="7">
-        <v>533489</v>
+        <v>507155</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -3282,7 +3285,7 @@
         <v>1395</v>
       </c>
       <c r="I9" s="7">
-        <v>817397</v>
+        <v>738721</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -3297,7 +3300,7 @@
         <v>2075</v>
       </c>
       <c r="N9" s="7">
-        <v>1350886</v>
+        <v>1245876</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -3320,46 +3323,46 @@
         <v>407</v>
       </c>
       <c r="D10" s="7">
-        <v>503058</v>
+        <v>683060</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>890</v>
       </c>
       <c r="I10" s="7">
-        <v>697971</v>
+        <v>651333</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>1297</v>
       </c>
       <c r="N10" s="7">
-        <v>1201029</v>
+        <v>1334393</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,46 +3374,46 @@
         <v>1076</v>
       </c>
       <c r="D11" s="7">
-        <v>1165742</v>
+        <v>1125399</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>1612</v>
       </c>
       <c r="I11" s="7">
-        <v>1278343</v>
+        <v>1330858</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>2688</v>
       </c>
       <c r="N11" s="7">
-        <v>2444085</v>
+        <v>2456257</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,46 +3425,46 @@
         <v>425</v>
       </c>
       <c r="D12" s="7">
-        <v>413952</v>
+        <v>405806</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>353</v>
       </c>
       <c r="I12" s="7">
-        <v>227148</v>
+        <v>212717</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>778</v>
       </c>
       <c r="N12" s="7">
-        <v>641100</v>
+        <v>618523</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,46 +3476,46 @@
         <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>17094</v>
+        <v>15964</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>13414</v>
+        <v>12171</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>30508</v>
+        <v>28135</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,7 +3527,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="7">
-        <v>56004</v>
+        <v>54257</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>271</v>
@@ -3533,37 +3536,37 @@
         <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>29144</v>
+        <v>27504</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>85148</v>
+        <v>81762</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3578,7 @@
         <v>1983</v>
       </c>
       <c r="D15" s="7">
-        <v>2155850</v>
+        <v>2284486</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3590,7 +3593,7 @@
         <v>2914</v>
       </c>
       <c r="I15" s="7">
-        <v>2246020</v>
+        <v>2234584</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -3605,7 +3608,7 @@
         <v>4897</v>
       </c>
       <c r="N15" s="7">
-        <v>4401870</v>
+        <v>4519070</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -3628,7 +3631,7 @@
         <v>245</v>
       </c>
       <c r="D16" s="7">
-        <v>243127</v>
+        <v>228992</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>279</v>
@@ -3643,7 +3646,7 @@
         <v>444</v>
       </c>
       <c r="I16" s="7">
-        <v>334344</v>
+        <v>305538</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>282</v>
@@ -3658,7 +3661,7 @@
         <v>689</v>
       </c>
       <c r="N16" s="7">
-        <v>577471</v>
+        <v>534530</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>285</v>
@@ -3679,7 +3682,7 @@
         <v>337</v>
       </c>
       <c r="D17" s="7">
-        <v>326441</v>
+        <v>312910</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>288</v>
@@ -3694,7 +3697,7 @@
         <v>479</v>
       </c>
       <c r="I17" s="7">
-        <v>328048</v>
+        <v>307000</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>291</v>
@@ -3709,7 +3712,7 @@
         <v>816</v>
       </c>
       <c r="N17" s="7">
-        <v>654489</v>
+        <v>619910</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>294</v>
@@ -3730,7 +3733,7 @@
         <v>94</v>
       </c>
       <c r="D18" s="7">
-        <v>99951</v>
+        <v>101430</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>297</v>
@@ -3745,7 +3748,7 @@
         <v>73</v>
       </c>
       <c r="I18" s="7">
-        <v>46230</v>
+        <v>43056</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>300</v>
@@ -3760,7 +3763,7 @@
         <v>167</v>
       </c>
       <c r="N18" s="7">
-        <v>146180</v>
+        <v>144487</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>303</v>
@@ -3769,7 +3772,7 @@
         <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,46 +3784,46 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1977</v>
+        <v>1811</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2560</v>
+        <v>2263</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>4537</v>
+        <v>4074</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,46 +3835,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>2090</v>
+        <v>2043</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>2852</v>
+        <v>2784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,7 +3886,7 @@
         <v>680</v>
       </c>
       <c r="D21" s="7">
-        <v>672257</v>
+        <v>645885</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -3898,7 +3901,7 @@
         <v>1003</v>
       </c>
       <c r="I21" s="7">
-        <v>713272</v>
+        <v>659899</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -3913,7 +3916,7 @@
         <v>1683</v>
       </c>
       <c r="N21" s="7">
-        <v>1385529</v>
+        <v>1305784</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -3936,46 +3939,46 @@
         <v>709</v>
       </c>
       <c r="D22" s="7">
-        <v>797665</v>
+        <v>959700</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>1569</v>
       </c>
       <c r="I22" s="7">
-        <v>1184088</v>
+        <v>1090790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>2278</v>
       </c>
       <c r="N22" s="7">
-        <v>1981754</v>
+        <v>2050490</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,46 +3990,46 @@
         <v>1687</v>
       </c>
       <c r="D23" s="7">
-        <v>1717656</v>
+        <v>1651293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>2726</v>
       </c>
       <c r="I23" s="7">
-        <v>1984276</v>
+        <v>1978353</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>4413</v>
       </c>
       <c r="N23" s="7">
-        <v>3701932</v>
+        <v>3629646</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,46 +4041,46 @@
         <v>755</v>
       </c>
       <c r="D24" s="7">
-        <v>685963</v>
+        <v>673886</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
         <v>809</v>
       </c>
       <c r="I24" s="7">
-        <v>482133</v>
+        <v>448443</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>1564</v>
       </c>
       <c r="N24" s="7">
-        <v>1168095</v>
+        <v>1122329</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,46 +4092,46 @@
         <v>62</v>
       </c>
       <c r="D25" s="7">
-        <v>51099</v>
+        <v>47343</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
       </c>
       <c r="I25" s="7">
-        <v>43306</v>
+        <v>38279</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
       </c>
       <c r="N25" s="7">
-        <v>94405</v>
+        <v>85623</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,46 +4143,46 @@
         <v>130</v>
       </c>
       <c r="D26" s="7">
-        <v>109214</v>
+        <v>105304</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>139</v>
       </c>
       <c r="I26" s="7">
-        <v>82886</v>
+        <v>77339</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>269</v>
       </c>
       <c r="N26" s="7">
-        <v>192100</v>
+        <v>182643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,7 +4194,7 @@
         <v>3343</v>
       </c>
       <c r="D27" s="7">
-        <v>3361597</v>
+        <v>3437526</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -4206,7 +4209,7 @@
         <v>5312</v>
       </c>
       <c r="I27" s="7">
-        <v>3776689</v>
+        <v>3633204</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4221,7 +4224,7 @@
         <v>8655</v>
       </c>
       <c r="N27" s="7">
-        <v>7138286</v>
+        <v>7070730</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
